--- a/biology/Zoologie/Caradrina_clavipalpis/Caradrina_clavipalpis.xlsx
+++ b/biology/Zoologie/Caradrina_clavipalpis/Caradrina_clavipalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caradrina clavipalpis, la Noctuelle des jachères ou Noctuelle cubiculaire, est une espèce de lépidoptères (papillons) de la famille des Noctuidae, de la sous-famille des Noctuinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phalaena clavipalpis Scopoli, 1763 protonyme
 Paradrina clavipalpis (Scopoli, 1763)
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paradrina est maintenant considéré comme un sous-genre du genre Caradrina ; la Noctuelle des jachères se nomme donc Caradrina (Paradrina) clavipalpis (Scopoli, 1763).
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bivoltin, le papillon est visible d'avril à juillet puis d'août à octobre.
 </t>
@@ -605,9 +623,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diverses plantes basses, phragmites, seigle[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses plantes basses, phragmites, seigle.
 </t>
         </is>
       </c>
